--- a/Python files and database/output_video.xlsx
+++ b/Python files and database/output_video.xlsx
@@ -1,43 +1,451 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView windowWidth="22188" windowHeight="9060"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>Місяць(1-12)</t>
+  </si>
+  <si>
+    <t>Температура повітря (°C)</t>
+  </si>
+  <si>
+    <t>Кількість опадів (мм)</t>
+  </si>
+  <si>
+    <t>Швидкість вітру (м/с)</t>
+  </si>
+  <si>
+    <t>Відносна вологість (%)</t>
+  </si>
+  <si>
+    <t>Сонячна радіація (МДж/м²)</t>
+  </si>
+  <si>
+    <t>Температура ґрунту (°C)</t>
+  </si>
+  <si>
+    <t>Вологість ґрунту (%)</t>
+  </si>
+  <si>
+    <t>pH ґрунту</t>
+  </si>
+  <si>
+    <t>Біомаса рослинності (кг/м²)</t>
+  </si>
+  <si>
+    <t>Кількість видів рослин</t>
+  </si>
+  <si>
+    <t>Чисельність травоїдних тварин (особини/км²)</t>
+  </si>
+  <si>
+    <t>Чисельність хижаків (особини/км²)</t>
+  </si>
+  <si>
+    <t>Чисельність декомпозиторів (особини/км²)</t>
+  </si>
+  <si>
+    <t>Смертність тварин (%)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill/>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -46,93 +454,329 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Запятая" xfId="1" builtinId="3"/>
+    <cellStyle name="Денежный" xfId="2" builtinId="4"/>
+    <cellStyle name="Процент" xfId="3" builtinId="5"/>
+    <cellStyle name="Запятая [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Денежный [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Гиперссылка" xfId="6" builtinId="8"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="7" builtinId="9"/>
+    <cellStyle name="Примечание" xfId="8" builtinId="10"/>
+    <cellStyle name="Предупреждающий текст" xfId="9" builtinId="11"/>
+    <cellStyle name="Заголовок" xfId="10" builtinId="15"/>
+    <cellStyle name="Пояснительный текст" xfId="11" builtinId="53"/>
+    <cellStyle name="Заголовок 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Заголовок 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Заголовок 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Заголовок 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Ввод" xfId="16" builtinId="20"/>
+    <cellStyle name="Вывод" xfId="17" builtinId="21"/>
+    <cellStyle name="Вычисление" xfId="18" builtinId="22"/>
+    <cellStyle name="Проверить ячейку" xfId="19" builtinId="23"/>
+    <cellStyle name="Связанная ячейка" xfId="20" builtinId="24"/>
+    <cellStyle name="Итого" xfId="21" builtinId="25"/>
+    <cellStyle name="Хороший" xfId="22" builtinId="26"/>
+    <cellStyle name="Плохой" xfId="23" builtinId="27"/>
+    <cellStyle name="Нейтральный" xfId="24" builtinId="28"/>
+    <cellStyle name="Акцент1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% — Акцент1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% — Акцент1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% — Акцент1" xfId="28" builtinId="32"/>
+    <cellStyle name="Акцент2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% — Акцент2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% — Акцент2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% — Акцент2" xfId="32" builtinId="36"/>
+    <cellStyle name="Акцент3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% — Акцент3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% — Акцент3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% — Акцент3" xfId="36" builtinId="40"/>
+    <cellStyle name="Акцент4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% — Акцент4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% — Акцент4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% — Акцент4" xfId="40" builtinId="44"/>
+    <cellStyle name="Акцент5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% — Акцент5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% — Акцент5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% — Акцент5" xfId="44" builtinId="48"/>
+    <cellStyle name="Акцент6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% — Акцент6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% — Акцент6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -415,197 +1059,133 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:U2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="13.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="25.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="21.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="21.8888888888889" customWidth="1"/>
+    <col min="5" max="5" width="22.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="28.1111111111111" customWidth="1"/>
+    <col min="7" max="7" width="24.6666666666667" customWidth="1"/>
+    <col min="8" max="8" width="20.4444444444444" customWidth="1"/>
+    <col min="9" max="9" width="12.8888888888889" customWidth="1"/>
+    <col min="10" max="10" width="28.2222222222222" customWidth="1"/>
+    <col min="11" max="11" width="22.6666666666667" customWidth="1"/>
+    <col min="12" max="12" width="46" customWidth="1"/>
+    <col min="13" max="13" width="35.5555555555556" customWidth="1"/>
+    <col min="14" max="14" width="43.8888888888889" customWidth="1"/>
+    <col min="15" max="15" width="22.5555555555556" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Місяць(1-12)</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Середня температура повітря (°C)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Відносна вологість повітря (%)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Швидкість вітру (м/с)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Кількість опадів (мм)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Сонячна радіація (МДж/м²)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Тривалість сонячного дня (годин)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Температура ґрунту (°C)</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Вологість ґрунту (%)</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>pH ґрунту</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Вміст органічної речовини в ґрунті (%)</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Вміст важких металів у ґрунті (мг/кг)</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Вміст викидів пилу у повітрі (мг/м³)</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Концентрація діоксиду азоту (NO₂, мг/м³)</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Концентрація діоксиду сірки (SO₂, мг/м³)</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Присутність фосфатів у водоймах (мг/л)</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Біомаса рослинності (кг/м²)</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Чисельність травоїдних тварин (особини/км²)</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Чисельність хижаків (особини/км²)</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Чисельність декомпозиторів (особини/км²)</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Різноманіття видів рослин (кількість видів)</t>
-        </is>
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:15">
+      <c r="A2">
         <v>2</v>
       </c>
-      <c r="B2" t="n">
-        <v>-2.645865678787231</v>
-      </c>
-      <c r="C2" t="n">
-        <v>48.51984024047852</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.320696830749512</v>
-      </c>
-      <c r="E2" t="n">
-        <v>34.29492950439453</v>
-      </c>
-      <c r="F2" t="n">
-        <v>13.94759559631348</v>
-      </c>
-      <c r="G2" t="n">
-        <v>5.733528614044189</v>
-      </c>
-      <c r="H2" t="n">
-        <v>-5.704857349395752</v>
-      </c>
-      <c r="I2" t="n">
-        <v>17.39779090881348</v>
-      </c>
-      <c r="J2" t="n">
-        <v>6.349503040313721</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.498252153396606</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.5044596195220947</v>
-      </c>
-      <c r="M2" t="n">
-        <v>71.10812377929688</v>
-      </c>
-      <c r="N2" t="n">
-        <v>25.85684394836426</v>
-      </c>
-      <c r="O2" t="n">
-        <v>9.431417465209961</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.2420937269926071</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.451317310333252</v>
-      </c>
-      <c r="R2" t="n">
-        <v>115.6191101074219</v>
-      </c>
-      <c r="S2" t="n">
-        <v>9.422796249389648</v>
-      </c>
-      <c r="T2" t="n">
-        <v>3453.615478515625</v>
-      </c>
-      <c r="U2" t="n">
-        <v>106.7877044677734</v>
+      <c r="B2">
+        <v>3.4363739490509</v>
+      </c>
+      <c r="C2">
+        <v>8.66128921508789</v>
+      </c>
+      <c r="D2">
+        <v>2.73278164863586</v>
+      </c>
+      <c r="E2">
+        <v>53.2344627380371</v>
+      </c>
+      <c r="F2">
+        <v>281.732086181641</v>
+      </c>
+      <c r="G2">
+        <v>2.90676879882812</v>
+      </c>
+      <c r="H2">
+        <v>15.9849710464478</v>
+      </c>
+      <c r="I2">
+        <v>6.86932897567749</v>
+      </c>
+      <c r="J2">
+        <v>0.310271263122559</v>
+      </c>
+      <c r="K2">
+        <v>54.0468292236328</v>
+      </c>
+      <c r="L2">
+        <v>50.1381797790527</v>
+      </c>
+      <c r="M2">
+        <v>12.2197151184082</v>
+      </c>
+      <c r="N2">
+        <v>3422.462890625</v>
+      </c>
+      <c r="O2">
+        <v>1.28183305263519</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Python files and database/output_video.xlsx
+++ b/Python files and database/output_video.xlsx
@@ -1,43 +1,451 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView windowWidth="22188" windowHeight="9000"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>Місяць(1-12)</t>
+  </si>
+  <si>
+    <t>Температура повітря (°C)</t>
+  </si>
+  <si>
+    <t>Кількість опадів (мм)</t>
+  </si>
+  <si>
+    <t>Швидкість вітру (м/с)</t>
+  </si>
+  <si>
+    <t>Відносна вологість (%)</t>
+  </si>
+  <si>
+    <t>Сонячна радіація (МДж/м²)</t>
+  </si>
+  <si>
+    <t>Температура ґрунту (°C)</t>
+  </si>
+  <si>
+    <t>Вологість ґрунту (%)</t>
+  </si>
+  <si>
+    <t>pH ґрунту</t>
+  </si>
+  <si>
+    <t>Біомаса рослинності (кг/м²)</t>
+  </si>
+  <si>
+    <t>Кількість видів рослин</t>
+  </si>
+  <si>
+    <t>Чисельність травоїдних тварин (особини/км²)</t>
+  </si>
+  <si>
+    <t>Чисельність хижаків (особини/км²)</t>
+  </si>
+  <si>
+    <t>Чисельність декомпозиторів (особини/км²)</t>
+  </si>
+  <si>
+    <t>Смертність тварин (%)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill/>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -46,93 +454,330 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Запятая" xfId="1" builtinId="3"/>
+    <cellStyle name="Денежный" xfId="2" builtinId="4"/>
+    <cellStyle name="Процент" xfId="3" builtinId="5"/>
+    <cellStyle name="Запятая [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Денежный [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Гиперссылка" xfId="6" builtinId="8"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="7" builtinId="9"/>
+    <cellStyle name="Примечание" xfId="8" builtinId="10"/>
+    <cellStyle name="Предупреждающий текст" xfId="9" builtinId="11"/>
+    <cellStyle name="Заголовок" xfId="10" builtinId="15"/>
+    <cellStyle name="Пояснительный текст" xfId="11" builtinId="53"/>
+    <cellStyle name="Заголовок 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Заголовок 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Заголовок 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Заголовок 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Ввод" xfId="16" builtinId="20"/>
+    <cellStyle name="Вывод" xfId="17" builtinId="21"/>
+    <cellStyle name="Вычисление" xfId="18" builtinId="22"/>
+    <cellStyle name="Проверить ячейку" xfId="19" builtinId="23"/>
+    <cellStyle name="Связанная ячейка" xfId="20" builtinId="24"/>
+    <cellStyle name="Итого" xfId="21" builtinId="25"/>
+    <cellStyle name="Хороший" xfId="22" builtinId="26"/>
+    <cellStyle name="Плохой" xfId="23" builtinId="27"/>
+    <cellStyle name="Нейтральный" xfId="24" builtinId="28"/>
+    <cellStyle name="Акцент1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% — Акцент1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% — Акцент1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% — Акцент1" xfId="28" builtinId="32"/>
+    <cellStyle name="Акцент2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% — Акцент2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% — Акцент2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% — Акцент2" xfId="32" builtinId="36"/>
+    <cellStyle name="Акцент3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% — Акцент3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% — Акцент3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% — Акцент3" xfId="36" builtinId="40"/>
+    <cellStyle name="Акцент4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% — Акцент4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% — Акцент4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% — Акцент4" xfId="40" builtinId="44"/>
+    <cellStyle name="Акцент5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% — Акцент5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% — Акцент5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% — Акцент5" xfId="44" builtinId="48"/>
+    <cellStyle name="Акцент6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% — Акцент6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% — Акцент6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -415,149 +1060,210 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Місяць(1-12)</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Температура повітря (°C)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Кількість опадів (мм)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Швидкість вітру (м/с)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Відносна вологість (%)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Сонячна радіація (МДж/м²)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Температура ґрунту (°C)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Вологість ґрунту (%)</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>pH ґрунту</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Біомаса рослинності (кг/м²)</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Кількість видів рослин</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Чисельність травоїдних тварин (особини/км²)</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Чисельність хижаків (особини/км²)</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Чисельність декомпозиторів (особини/км²)</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Смертність тварин (%)</t>
-        </is>
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:15">
+      <c r="A2">
         <v>2</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>7.41533088684082</v>
       </c>
-      <c r="C2" t="n">
-        <v>15.57984924316406</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.880304098129272</v>
-      </c>
-      <c r="E2" t="n">
-        <v>55.05366897583008</v>
-      </c>
-      <c r="F2" t="n">
-        <v>361.9589233398438</v>
-      </c>
-      <c r="G2" t="n">
-        <v>7.263748645782471</v>
-      </c>
-      <c r="H2" t="n">
-        <v>18.27121353149414</v>
-      </c>
-      <c r="I2" t="n">
-        <v>6.917501926422119</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="C2">
+        <v>15.5798492431641</v>
+      </c>
+      <c r="D2">
+        <v>2.88030409812927</v>
+      </c>
+      <c r="E2">
+        <v>55.0536689758301</v>
+      </c>
+      <c r="F2">
+        <v>361.958923339844</v>
+      </c>
+      <c r="G2">
+        <v>7.26374864578247</v>
+      </c>
+      <c r="H2">
+        <v>18.2712135314941</v>
+      </c>
+      <c r="I2">
+        <v>6.91750192642212</v>
+      </c>
+      <c r="J2">
         <v>0.675255298614502</v>
       </c>
-      <c r="K2" t="n">
-        <v>55.93969345092773</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="K2">
+        <v>55.9396934509277</v>
+      </c>
+      <c r="L2">
         <v>56.193603515625</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>13.9551248550415</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2">
         <v>3614.99755859375</v>
       </c>
-      <c r="O2" t="n">
-        <v>1.420688986778259</v>
+      <c r="O2">
+        <v>1.42068898677826</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>34</v>
+      </c>
+      <c r="D3" s="2">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2">
+        <v>67</v>
+      </c>
+      <c r="F3" s="2">
+        <v>258.1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="H3" s="2">
+        <v>20</v>
+      </c>
+      <c r="I3" s="2">
+        <v>7.02</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="K3" s="2">
+        <v>54</v>
+      </c>
+      <c r="L3" s="2">
+        <v>96</v>
+      </c>
+      <c r="M3" s="2">
+        <v>11</v>
+      </c>
+      <c r="N3" s="2">
+        <v>4375</v>
+      </c>
+      <c r="O3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3.40497899055481</v>
+      </c>
+      <c r="C4">
+        <v>30.9856586456299</v>
+      </c>
+      <c r="D4">
+        <v>3.34707069396973</v>
+      </c>
+      <c r="E4">
+        <v>66.8943786621094</v>
+      </c>
+      <c r="F4">
+        <v>330.151702880859</v>
+      </c>
+      <c r="G4">
+        <v>2.92635655403137</v>
+      </c>
+      <c r="H4">
+        <v>19.2110958099365</v>
+      </c>
+      <c r="I4">
+        <v>7.06026697158813</v>
+      </c>
+      <c r="J4">
+        <v>0.0148045644164085</v>
+      </c>
+      <c r="K4">
+        <v>59.8561019897461</v>
+      </c>
+      <c r="L4">
+        <v>98.3778915405273</v>
+      </c>
+      <c r="M4">
+        <v>16.761022567749</v>
+      </c>
+      <c r="N4">
+        <v>3752.50439453125</v>
+      </c>
+      <c r="O4">
+        <v>2.10750722885132</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Python files and database/output_video.xlsx
+++ b/Python files and database/output_video.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000"/>
+    <workbookView windowWidth="22188" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -569,19 +569,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -590,7 +590,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -714,11 +714,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1066,13 +1067,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A5" sqref="A5:O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
@@ -1260,6 +1261,53 @@
       </c>
       <c r="O4">
         <v>2.10750722885132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1.62504374980926</v>
+      </c>
+      <c r="C5" s="3">
+        <v>28.636209487915</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3.2721164226532</v>
+      </c>
+      <c r="E5" s="3">
+        <v>65.1900253295898</v>
+      </c>
+      <c r="F5" s="3">
+        <v>357.647583007813</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1.18057382106781</v>
+      </c>
+      <c r="H5" s="3">
+        <v>20.9727993011475</v>
+      </c>
+      <c r="I5" s="3">
+        <v>7.06311464309692</v>
+      </c>
+      <c r="J5" s="3">
+        <v>-0.0177767872810364</v>
+      </c>
+      <c r="K5" s="3">
+        <v>64.0035705566406</v>
+      </c>
+      <c r="L5" s="3">
+        <v>96.7776489257812</v>
+      </c>
+      <c r="M5" s="3">
+        <v>18.4665431976318</v>
+      </c>
+      <c r="N5" s="3">
+        <v>4473.46337890625</v>
+      </c>
+      <c r="O5" s="3">
+        <v>2.24598908424377</v>
       </c>
     </row>
   </sheetData>
